--- a/DCF Time Sheet - DWH - Jan-2024 -Chirag.xlsx
+++ b/DCF Time Sheet - DWH - Jan-2024 -Chirag.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chirag.D\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C293EA5-B233-4CAF-992C-CEB8EBA2A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4BFBD0-CECC-41CD-8E85-F645D9048FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C9EFA0F-26A8-49E0-B736-97D7E9FC2FAB}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="15375" windowHeight="7875" xr2:uid="{7C9EFA0F-26A8-49E0-B736-97D7E9FC2FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="DWH Work" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -181,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,12 +245,6 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -300,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,32 +348,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B1FDA9-7972-49C2-9557-71E7CBBF41B8}">
   <dimension ref="B2:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,203 +974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B29767-CD4A-405A-B12D-C2430AC9397D}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="9" style="25" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="25"/>
-    <col min="5" max="5" width="22" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b2e50d06-ef3b-49d7-adca-70555ac79c9b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010094A9E476B73F654CB75E3B746054821C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b207f08ffabeae8b799613d1b4451d55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2e50d06-ef3b-49d7-adca-70555ac79c9b" xmlns:ns4="6841f83c-c8ed-4fce-9265-232d6b41a318" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e28bda35143d60345f494c3f4b84e5b8" ns3:_="" ns4:_="">
     <xsd:import namespace="b2e50d06-ef3b-49d7-adca-70555ac79c9b"/>
@@ -1430,32 +1201,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5970652B-B211-4B93-BEF8-4A3EE9B93F5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6841f83c-c8ed-4fce-9265-232d6b41a318"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b2e50d06-ef3b-49d7-adca-70555ac79c9b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A09468-F8B6-46B3-ACFD-B6DB20856E2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b2e50d06-ef3b-49d7-adca-70555ac79c9b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D96981-57FB-4D32-AD55-8FC648EE7180}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1472,4 +1235,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A09468-F8B6-46B3-ACFD-B6DB20856E2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5970652B-B211-4B93-BEF8-4A3EE9B93F5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6841f83c-c8ed-4fce-9265-232d6b41a318"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b2e50d06-ef3b-49d7-adca-70555ac79c9b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>